--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>I want to be able to…</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Access controll</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Register visitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a visitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to be able to register </t>
+  </si>
+  <si>
+    <t>So that I can upload pictures</t>
   </si>
 </sst>
 </file>
@@ -419,17 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="2" customWidth="1"/>
   </cols>
@@ -469,9 +483,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
+    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>I want to be able to…</t>
   </si>
@@ -61,6 +61,48 @@
   </si>
   <si>
     <t>So that I can upload pictures</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Voting for pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user </t>
+  </si>
+  <si>
+    <t>So that I can vote for them</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to be able to add pictures </t>
+  </si>
+  <si>
+    <t>Remove pictures</t>
+  </si>
+  <si>
+    <t>I want to be able to remove pictures</t>
+  </si>
+  <si>
+    <t>So that I can controll the content of the albums</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Rating of albums</t>
+  </si>
+  <si>
+    <t>As a Project Manager</t>
+  </si>
+  <si>
+    <t>I want to be able to see statistics of votes</t>
+  </si>
+  <si>
+    <t>So that I will know which is the favorite breed.</t>
   </si>
 </sst>
 </file>
@@ -437,7 +479,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +487,7 @@
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -458,10 +500,10 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -478,7 +520,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -495,13 +537,61 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>I want to be able to…</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>So that I will know which is the favorite breed.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Downloading pictures</t>
+  </si>
+  <si>
+    <t>I want to be able to download pictures</t>
+  </si>
+  <si>
+    <t>So I can store my favorites on my computer</t>
   </si>
 </sst>
 </file>
@@ -479,7 +491,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +512,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -592,7 +604,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
